--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Connect4-3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usherbrooke.sharepoint.com/sites/Cours-GIF270-H23-quipe2/Documents partages/Équipe 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C627130A-5FA2-44AC-B3FE-6CB10CC3F325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{211673C4-81D7-4E53-B1A6-A11839544B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93529FD6-71A7-4077-88F3-5442C7920170}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02AD7170-B3BB-4C58-852E-86C501E61D3C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{02AD7170-B3BB-4C58-852E-86C501E61D3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+  <si>
+    <t xml:space="preserve">Bill of materials - Connect4-3D                       </t>
+  </si>
+  <si>
+    <t>Last update: March 22rd 2023</t>
+  </si>
   <si>
     <t>Item</t>
   </si>
@@ -44,25 +50,118 @@
     <t>Description</t>
   </si>
   <si>
+    <t>URL</t>
+  </si>
+  <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>M3 bolts</t>
-  </si>
-  <si>
-    <t>Unit price</t>
-  </si>
-  <si>
-    <t>total price</t>
-  </si>
-  <si>
-    <t>bolts</t>
-  </si>
-  <si>
-    <t>Bill of materials - Connect4-3D</t>
-  </si>
-  <si>
-    <t>Last update: January 31st 2023</t>
+    <t>Unit price (CAD)</t>
+  </si>
+  <si>
+    <t>Total price (CAD)</t>
+  </si>
+  <si>
+    <t>Dual Ball Bearing Hub P/N: 545444</t>
+  </si>
+  <si>
+    <t>https://abra-electronics.com/robotics-actobotics-servocity/motion-en/hubs/ball-bearing-hubs/545444-ball-bearing-hub.html</t>
+  </si>
+  <si>
+    <t>1/4" Bore Set Screw Hub P/N: 545548</t>
+  </si>
+  <si>
+    <t>https://ca.robotshop.com/products/mount-set-screw-hub-1-4-bore</t>
+  </si>
+  <si>
+    <t>1/4" x 8" Stainless Steel D-shaft P/N: 634088</t>
+  </si>
+  <si>
+    <t>https://abra-electronics.com/robotics-actobotics-servocity/motion-en/shafting/d-shaft-stainless-steel-1-4/634088-shaft-d-shaft-stainless-1-4d-x-8.00l.html</t>
+  </si>
+  <si>
+    <t>1/4" x 6" Stainless Steel D-shaft P/N: 634084</t>
+  </si>
+  <si>
+    <t>https://ca.robotshop.com/products/actobotics-6x1-4-precision-d-shaft</t>
+  </si>
+  <si>
+    <t>Flat Bracket B P/N: 585584</t>
+  </si>
+  <si>
+    <t>https://www.servocity.com/flat-0-770-pattern-bracket-b/</t>
+  </si>
+  <si>
+    <t>OpenCR card</t>
+  </si>
+  <si>
+    <t>https://www.robotis.us/opencr1-0/</t>
+  </si>
+  <si>
+    <t>DC Motor driver</t>
+  </si>
+  <si>
+    <t>https://ca.robotshop.com/products/cytron-13a-dc-motor-driver-grove-compatible</t>
+  </si>
+  <si>
+    <t>Polulu motor #4845</t>
+  </si>
+  <si>
+    <t>https://www.pololu.com/product/4845</t>
+  </si>
+  <si>
+    <t>Dynamixel motor XL430</t>
+  </si>
+  <si>
+    <t>https://www.robotis.us/dynamixel-xl430-w250-t/</t>
+  </si>
+  <si>
+    <t>Dynamixel motor XM430</t>
+  </si>
+  <si>
+    <t>https://www.robotis.us/dynamixel-xm430-w350-r/</t>
+  </si>
+  <si>
+    <t>Limit Switch</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/InduSKY-Switch-Momentary-Roller-Switches/dp/B08736NP44/ref=sr_1_5?hvadid=208281747022&amp;hvdev=c&amp;hvlocphy=9000516&amp;hvnetw=g&amp;hvqmt=e&amp;hvrand=10563140895118573304&amp;hvtargid=kwd-21751186&amp;hydadcr=28079_9824533&amp;keywords=limit+switch&amp;qid=1678297709&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t>Grove Electromagnet P/N: RB-See-346</t>
+  </si>
+  <si>
+    <t>https://ca.robotshop.com/fr/products/grove-electromagnet</t>
+  </si>
+  <si>
+    <t>VIVO Single Monitor Arm Desk Mount, STAND-V001</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/VIVO-Monitor-Adjustable-Articulating-STAND-V001/dp/B00B21TLQU</t>
+  </si>
+  <si>
+    <t>ELP USB Camera Module Megapixel USB Camera</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/ELP-Raspberry-microphone-security-camera/dp/B01E8OWXGC</t>
+  </si>
+  <si>
+    <t>Bobines de PLA (environ 1,3 kg)</t>
+  </si>
+  <si>
+    <t>M2 10mm screw</t>
+  </si>
+  <si>
+    <t>For screwing the gears into the motor plate</t>
+  </si>
+  <si>
+    <t>M2.5 10mm screw</t>
+  </si>
+  <si>
+    <t>For screwing in the dynamixel motors</t>
+  </si>
+  <si>
+    <t>M3 Screws</t>
   </si>
   <si>
     <t>Total</t>
@@ -72,10 +171,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;$&quot;"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-1009]* #,##0.00_-;\-[$$-1009]* #,##0.00_-;_-[$$-1009]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +206,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -124,10 +239,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -138,22 +255,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -170,7 +296,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -458,7 +584,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -466,337 +592,755 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C482104B-9206-4203-9E5A-3B62D1E3CEFA}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="42.85546875" customWidth="1"/>
+    <col min="1" max="1" width="49" customWidth="1"/>
     <col min="2" max="2" width="57.140625" customWidth="1"/>
-    <col min="3" max="5" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" ht="46.5" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" customHeight="1">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" ht="23.45">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="6" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="15.6">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5</v>
+      </c>
+      <c r="E4" s="9">
+        <v>10.76</v>
+      </c>
+      <c r="F4" s="9">
+        <f>E4*D4</f>
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.6">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7">
+        <v>6</v>
+      </c>
+      <c r="E5" s="9">
+        <v>7.18</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" ref="F5:F21" si="0">E5*D5</f>
+        <v>43.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.6">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>5.68</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="0"/>
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.6">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.6">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7">
+        <v>4</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2.74</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>10.96</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.6">
+      <c r="A9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>214.9</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
+        <v>214.9</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.6">
+      <c r="A10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>19.04</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>19.04</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.6">
+      <c r="A11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
+        <v>67.209999999999994</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="0"/>
+        <v>67.209999999999994</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.6">
+      <c r="A12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>68.89</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="0"/>
+        <v>68.89</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.6">
+      <c r="A13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9">
+        <v>397.64</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="0"/>
+        <v>397.64</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.6">
+      <c r="A14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <f>11.24/10</f>
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.6">
+      <c r="A15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9">
+        <v>13.42</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="0"/>
+        <v>13.42</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.6">
+      <c r="A16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
+        <v>44.99</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="0"/>
+        <v>44.99</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.6">
+      <c r="A17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9">
+        <v>92.58</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="0"/>
+        <v>92.58</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.6">
+      <c r="A18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="D18" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="E18" s="9">
+        <v>30</v>
+      </c>
+      <c r="F18" s="9">
+        <f>E18*D18</f>
+        <v>39</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.6">
+      <c r="A19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="7">
+        <v>8</v>
+      </c>
+      <c r="E19" s="9">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="F19" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.6">
+      <c r="A20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="7">
         <v>8</v>
       </c>
-      <c r="D5" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="E5" s="8">
-        <f>D5*C5</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="2"/>
+    <row r="21" spans="1:7" ht="15.6">
+      <c r="A21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="D21" s="7">
+        <v>100</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="2"/>
+    <row r="22" spans="1:7" ht="15.6">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="2"/>
+    <row r="23" spans="1:7" ht="23.45">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="8">
-        <f>SUM(E5:E21)</f>
-        <v>0.8</v>
-      </c>
-      <c r="F24" s="2"/>
+    <row r="24" spans="1:7" ht="18">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="5">
+        <f>SUM(F4:F21)</f>
+        <v>1076.5439999999999</v>
+      </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:7">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:7">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:7">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
+    <row r="36" spans="3:7" ht="15"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="F1:I2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{CD81A5E9-688B-4904-ADDD-7BDE77779016}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{EFB2F0F9-B344-441A-A341-1820D91333B7}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{E4C75F56-33AD-4EBA-9822-0CFED4FBC6F9}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{F0B17604-8793-412F-BB23-8EF7E2D8EA39}"/>
+    <hyperlink ref="C15" r:id="rId5" xr:uid="{95013F1C-CF8B-4350-AF91-724593B3CAFD}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{36B6570D-EC02-4B61-888B-C13A10BBDC25}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{1BD93ED4-2CF4-4B35-90D2-30A325713B17}"/>
+    <hyperlink ref="C16" r:id="rId8" xr:uid="{DBA4C04C-F8B9-4684-B823-94D5083B6EBF}"/>
+    <hyperlink ref="C14" r:id="rId9" display="https://www.amazon.ca/InduSKY-Switch-Momentary-Roller-Switches/dp/B08736NP44/ref=sr_1_5?hvadid=208281747022&amp;hvdev=c&amp;hvlocphy=9000516&amp;hvnetw=g&amp;hvqmt=e&amp;hvrand=10563140895118573304&amp;hvtargid=kwd-21751186&amp;hydadcr=28079_9824533&amp;keywords=limit+switch&amp;qid=1678297709&amp;sr=8-5" xr:uid="{D04D75D6-D720-4B91-8867-BE1368112B38}"/>
+    <hyperlink ref="C17" r:id="rId10" xr:uid="{F9FCD6A0-10AE-4432-875F-B03FC5913858}"/>
+    <hyperlink ref="C8" r:id="rId11" xr:uid="{32BDECB2-0ECD-4B5B-BC1B-9C6D0D6D342E}"/>
+    <hyperlink ref="C12" r:id="rId12" xr:uid="{0414E780-B879-4370-A311-9E9888EA6D1A}"/>
+    <hyperlink ref="C13" r:id="rId13" xr:uid="{F4FCB7FE-0C89-4639-830D-1C11EAA546A1}"/>
+    <hyperlink ref="C11" r:id="rId14" xr:uid="{1479AA82-94F9-40DA-9B6E-AC0FECF3FEC8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6e879a7e-2e95-497f-a2fd-d47c15d28ec6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010059F079F49B187D46999708734900CEB4" ma:contentTypeVersion="10" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="bddc26ca18f8ed4ff8981556692e154e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6e879a7e-2e95-497f-a2fd-d47c15d28ec6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c564264b90e4a5d99c5d32246367202a" ns2:_="">
+    <xsd:import namespace="6e879a7e-2e95-497f-a2fd-d47c15d28ec6"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6e879a7e-2e95-497f-a2fd-d47c15d28ec6" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d264a842-8adc-43f3-ad4e-91e5e271ce18" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="15" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42D0847B-8F65-4246-84C2-737596339FB9}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0B17FD7-3728-4DB1-8BB5-E782A4B37169}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3427A84-D37C-477F-A71B-3FB86FCDB57B}"/>
 </file>